--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationdispense-list.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationdispense-list.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3706" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3853" uniqueCount="572">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -272,7 +272,9 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mdd-1:whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mdd-1:whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}ch-dosage-meddis:If one dosage element is present, it should not have a sequence number. 
+              If more than one dosage element is present, the base entry has the sequence number 1. {(dosageInstruction.count() &gt; 1 implies dosageInstruction.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage') and sequence = 1).exists()) 
+         and (dosageInstruction.count() = 1 implies dosageInstruction.single().sequence.exists().not())}split-dosage-instruction-unit-must-match-base-dosage-instruction:The unit for doseAndRate of different dosages (split dosage) belonging to the same statement/request/dispense must match. {(dosageInstruction.count() &gt; 1) implies dosageInstruction.doseAndRate.dose.ofType(Quantity).code.union(dosageInstruction.doseAndRate.dose.ofType(Range).low.code).union(dosageInstruction.doseAndRate.dose.ofType(Range).high.code).union(dosageInstruction.doseAndRate.rate.numerator.code).count() = 1}</t>
   </si>
   <si>
     <t>Event</t>
@@ -424,7 +426,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -597,6 +599,9 @@
     <t>Treatment reason</t>
   </si>
   <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
@@ -655,6 +660,9 @@
   <si>
     <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-author}
 </t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
   </si>
   <si>
     <t>MedicationDispense.extension:authorDocument.id</t>
@@ -1150,7 +1158,7 @@
     <t>MedicationDispense.medication[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Medication)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medication)
 </t>
   </si>
   <si>
@@ -1409,23 +1417,19 @@
 </t>
   </si>
   <si>
-    <t>A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
+    <t>Number of packages</t>
+  </si>
+  <si>
+    <t>The amount of medication that has been dispensed. Includes unit of measure.</t>
+  </si>
+  <si>
+    <t>.quantity</t>
+  </si>
+  <si>
+    <t>CombinedMedicationDispense.SupplyEvent.quantity</t>
+  </si>
+  <si>
+    <t>RXD-4-Actual Dispense Amount / RXD-5.1-Actual Dispense Units.code / RXD-5.3-Actual Dispense Units.name of coding system</t>
   </si>
   <si>
     <t>MedicationDispense.daysSupply</t>
@@ -1435,6 +1439,15 @@
 </t>
   </si>
   <si>
+    <t>effectiveUseTime</t>
+  </si>
+  <si>
+    <t>TQ1.6 Timing/Quantity Segment Service Duration.+Prior to v2.5, ORC.7.3 Common Order Segment / Quantity/Timing / Duration component.  This is a formatted string, first character for the time unit (e.g., D=days), followed by the value.  For example, “D14” represents “14 days supply”+From v2.5 on, TQ1.6 Timing/Quantity Segment / Service Duration.  This is a CQ data type (&lt;Quantity (NM)&gt; ^ &lt;Units (CWE)&gt;), thus for days supply, assuming the unit of measure is “days”, the numeric value is TQ1.6.1 (…|14^+For backwards compatibility, ORC.7 was permitted through v2.6.  Both forms (field and segment) may be present in v2.5, v2.5.1, and v2.6</t>
+  </si>
+  <si>
     <t>MedicationDispense.whenPrepared</t>
   </si>
   <si>
@@ -1569,14 +1582,14 @@
     <t>MedicationDispense.dosageInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Dosage
+    <t xml:space="preserve">Dosage {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-dosage}
 </t>
   </si>
   <si>
     <t>How the medication should be taken</t>
   </si>
   <si>
-    <t>Indicates how the medication is to be used by the patient.</t>
+    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
   </si>
   <si>
     <t>When the dose or rate is intended to change over the entire administration period (e.g. Tapering dose prescriptions), multiple instances of dosage instructions will need to be supplied to convey the different doses/rates.@@ -1600,10 +1613,7 @@
 </t>
   </si>
   <si>
-    <t>CH EMED Dosage (MedicationStatement / MedicationDispense)</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>Base entry of the dosage instruction</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1620,7 +1630,7 @@
 </t>
   </si>
   <si>
-    <t>CH EMED Dosage Split (MedicationStatement / MedicationDispense / MedicationRequest)</t>
+    <t>Additional entry of the dosage instruction</t>
   </si>
   <si>
     <t>MedicationDispense.substitution</t>
@@ -1633,7 +1643,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-emed-dis-1:If no substitution was performed, no type is expected. {wasSubstituted = true or (wasSubstituted = false and type.exists().not())}</t>
+ch-meddis-1:If no substitution was performed, no type is expected. {wasSubstituted = true or (wasSubstituted = false and type.exists().not())}ch-emed-dis-1:If no substitution was performed, no type is expected. {wasSubstituted = true or (wasSubstituted = false and type.exists().not())}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SUBST, moodCode=EVN]</t>
@@ -1676,13 +1686,74 @@
     <t>A code signifying whether a different drug was dispensed from what was prescribed.</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-emed/ValueSet/ActSubstanceAdminSubstitutionCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/ActSubstanceAdminSubstitutionCode</t>
   </si>
   <si>
     <t>CombinedMedicationDispense.substitutionMade.code</t>
   </si>
   <si>
     <t>RXO-9-Allow Substitutions / RXE-9-Substitution Status</t>
+  </si>
+  <si>
+    <t>MedicationDispense.substitution.type.id</t>
+  </si>
+  <si>
+    <t>MedicationDispense.substitution.type.extension</t>
+  </si>
+  <si>
+    <t>MedicationDispense.substitution.type.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://terminology.hl7.org/CodeSystem/v3-substanceAdminSubstitution"/&gt;
+  &lt;code value="E"/&gt;
+  &lt;display value="equivalent"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationDispense.substitution.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationDispense.substitution.reason</t>
@@ -2047,7 +2118,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO100"/>
+  <dimension ref="A1:AO104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2056,46 +2127,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="79.078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.89453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.4765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="82.58984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="48.12109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.47265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="223.88671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="218.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="162.11328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="126.52734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="69.5546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.41796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="130.8515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="70.38671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="46.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="70.92578125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="92.3984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="73.296875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4101,7 +4172,7 @@
         <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -4119,7 +4190,7 @@
         <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4179,7 +4250,7 @@
         <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>116</v>
@@ -4188,7 +4259,7 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -4202,13 +4273,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>177</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>79</v>
@@ -4230,10 +4301,10 @@
         <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>180</v>
@@ -4296,7 +4367,7 @@
         <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>116</v>
@@ -4319,13 +4390,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>177</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>79</v>
@@ -4347,7 +4418,7 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>110</v>
@@ -4413,7 +4484,7 @@
         <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>116</v>
@@ -4436,13 +4507,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>177</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>79</v>
@@ -4464,10 +4535,10 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>180</v>
@@ -4530,7 +4601,7 @@
         <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>116</v>
@@ -4553,13 +4624,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>177</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>79</v>
@@ -4581,10 +4652,10 @@
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>180</v>
@@ -4670,13 +4741,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>177</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>79</v>
@@ -4698,13 +4769,13 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4773,7 +4844,7 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4787,10 +4858,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4902,10 +4973,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5017,10 +5088,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5046,13 +5117,13 @@
         <v>125</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5060,7 +5131,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>79</v>
@@ -5102,7 +5173,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>89</v>
@@ -5134,10 +5205,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5160,13 +5231,13 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5205,17 +5276,17 @@
         <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5247,13 +5318,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>79</v>
@@ -5275,13 +5346,13 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5332,7 +5403,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5364,10 +5435,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5479,14 +5550,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5508,13 +5579,13 @@
         <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5596,13 +5667,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>79</v>
@@ -5624,13 +5695,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5713,10 +5784,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5742,13 +5813,13 @@
         <v>103</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5798,7 +5869,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5807,7 +5878,7 @@
         <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>101</v>
@@ -5830,10 +5901,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5859,13 +5930,13 @@
         <v>125</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5894,10 +5965,10 @@
         <v>137</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -5915,7 +5986,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5947,10 +6018,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5973,16 +6044,16 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6032,7 +6103,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6050,7 +6121,7 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6064,10 +6135,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6093,13 +6164,13 @@
         <v>103</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6149,7 +6220,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6181,10 +6252,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6216,7 +6287,7 @@
         <v>180</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6266,7 +6337,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6298,10 +6369,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6324,16 +6395,16 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6383,7 +6454,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6398,16 +6469,16 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6415,10 +6486,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6530,14 +6601,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6559,13 +6630,13 @@
         <v>109</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6647,10 +6718,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6676,16 +6747,16 @@
         <v>153</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6710,13 +6781,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -6734,7 +6805,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6752,7 +6823,7 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6766,10 +6837,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6792,19 +6863,19 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6832,10 +6903,10 @@
         <v>137</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6853,7 +6924,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6871,7 +6942,7 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6880,15 +6951,15 @@
         <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6914,29 +6985,29 @@
         <v>125</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>79</v>
@@ -6972,7 +7043,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6990,7 +7061,7 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -6999,15 +7070,15 @@
         <v>79</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7033,13 +7104,13 @@
         <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7053,7 +7124,7 @@
         <v>79</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>79</v>
@@ -7089,7 +7160,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7107,7 +7178,7 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7116,15 +7187,15 @@
         <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7147,13 +7218,13 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7204,7 +7275,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7222,7 +7293,7 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7231,15 +7302,15 @@
         <v>79</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7262,16 +7333,16 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7321,7 +7392,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7339,7 +7410,7 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7348,15 +7419,15 @@
         <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7379,7 +7450,7 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>110</v>
@@ -7436,7 +7507,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7451,10 +7522,10 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7468,10 +7539,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7497,13 +7568,13 @@
         <v>153</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7511,7 +7582,7 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>79</v>
@@ -7529,13 +7600,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7553,7 +7624,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>89</v>
@@ -7568,16 +7639,16 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7585,10 +7656,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7611,10 +7682,10 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>111</v>
@@ -7647,10 +7718,10 @@
         <v>143</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -7668,7 +7739,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7683,10 +7754,10 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7700,10 +7771,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7726,7 +7797,7 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>110</v>
@@ -7735,7 +7806,7 @@
         <v>111</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7764,28 +7835,28 @@
         <v>157</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7803,7 +7874,7 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7817,10 +7888,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7843,16 +7914,16 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7890,17 +7961,17 @@
         <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>89</v>
@@ -7915,30 +7986,30 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>79</v>
@@ -7960,16 +8031,16 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8019,7 +8090,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>89</v>
@@ -8034,27 +8105,27 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8077,16 +8148,16 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8136,7 +8207,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8151,27 +8222,27 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8283,14 +8354,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8312,13 +8383,13 @@
         <v>109</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8400,10 +8471,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8429,13 +8500,13 @@
         <v>103</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8485,7 +8556,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8494,7 +8565,7 @@
         <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>101</v>
@@ -8517,10 +8588,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8546,13 +8617,13 @@
         <v>125</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8581,10 +8652,10 @@
         <v>137</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>79</v>
@@ -8602,7 +8673,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8634,10 +8705,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8660,16 +8731,16 @@
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8719,7 +8790,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8737,7 +8808,7 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8751,10 +8822,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8780,13 +8851,13 @@
         <v>103</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8836,7 +8907,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8868,10 +8939,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8894,7 +8965,7 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>110</v>
@@ -8951,7 +9022,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8966,10 +9037,10 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -8983,10 +9054,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9009,7 +9080,7 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>110</v>
@@ -9066,7 +9137,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9084,10 +9155,10 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9098,10 +9169,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9124,13 +9195,13 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9181,7 +9252,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9196,10 +9267,10 @@
         <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9213,10 +9284,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9328,14 +9399,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9357,13 +9428,13 @@
         <v>109</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9445,10 +9516,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9480,7 +9551,7 @@
         <v>180</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9530,7 +9601,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9562,10 +9633,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9588,17 +9659,17 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -9626,10 +9697,10 @@
         <v>143</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>79</v>
@@ -9647,7 +9718,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9665,7 +9736,7 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9679,10 +9750,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9705,13 +9776,13 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9762,7 +9833,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>89</v>
@@ -9777,10 +9848,10 @@
         <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9794,10 +9865,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9909,14 +9980,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9938,13 +10009,13 @@
         <v>109</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10026,10 +10097,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10055,13 +10126,13 @@
         <v>103</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10111,7 +10182,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10120,7 +10191,7 @@
         <v>89</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>101</v>
@@ -10143,10 +10214,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10172,13 +10243,13 @@
         <v>125</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10207,10 +10278,10 @@
         <v>137</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>79</v>
@@ -10228,7 +10299,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10260,10 +10331,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10286,16 +10357,16 @@
         <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10345,7 +10416,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10363,7 +10434,7 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10377,10 +10448,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10406,13 +10477,13 @@
         <v>103</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10462,7 +10533,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10494,10 +10565,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10520,7 +10591,7 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>110</v>
@@ -10577,7 +10648,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10595,7 +10666,7 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10609,10 +10680,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10635,7 +10706,7 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>110</v>
@@ -10644,7 +10715,7 @@
         <v>111</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10694,7 +10765,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10709,27 +10780,27 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10752,7 +10823,7 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>110</v>
@@ -10788,28 +10859,28 @@
         <v>143</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Z75" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF75" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -10827,24 +10898,24 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10867,17 +10938,15 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -10926,7 +10995,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -10935,10 +11004,10 @@
         <v>89</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>449</v>
+        <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
@@ -10950,18 +11019,18 @@
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10984,7 +11053,7 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>110</v>
@@ -10992,9 +11061,7 @@
       <c r="M77" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N77" t="s" s="2">
-        <v>448</v>
-      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>79</v>
@@ -11043,7 +11110,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11052,16 +11119,16 @@
         <v>89</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>449</v>
+        <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11070,15 +11137,15 @@
         <v>79</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11101,7 +11168,7 @@
         <v>90</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>110</v>
@@ -11158,7 +11225,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11176,24 +11243,24 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11216,13 +11283,13 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11273,7 +11340,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11288,27 +11355,27 @@
         <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11331,7 +11398,7 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>110</v>
@@ -11388,7 +11455,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11406,24 +11473,24 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11446,7 +11513,7 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>110</v>
@@ -11503,7 +11570,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11521,13 +11588,13 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -11535,10 +11602,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11561,13 +11628,13 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11618,7 +11685,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11633,10 +11700,10 @@
         <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11645,15 +11712,15 @@
         <v>79</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11765,10 +11832,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11880,10 +11947,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11906,16 +11973,16 @@
         <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>111</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11965,7 +12032,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -11983,7 +12050,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -11997,10 +12064,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12023,7 +12090,7 @@
         <v>90</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>110</v>
@@ -12080,7 +12147,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12098,7 +12165,7 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12112,10 +12179,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12138,13 +12205,13 @@
         <v>90</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12195,7 +12262,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>89</v>
@@ -12213,7 +12280,7 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12227,10 +12294,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12253,16 +12320,16 @@
         <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12300,17 +12367,17 @@
         <v>79</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="AC88" s="2"/>
       <c r="AD88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12328,7 +12395,7 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
@@ -12342,13 +12409,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>79</v>
@@ -12370,16 +12437,16 @@
         <v>79</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12429,7 +12496,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12441,13 +12508,13 @@
         <v>79</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
@@ -12461,13 +12528,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>79</v>
@@ -12489,16 +12556,16 @@
         <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12548,7 +12615,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -12566,7 +12633,7 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12580,10 +12647,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12606,13 +12673,13 @@
         <v>79</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12663,7 +12730,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -12675,19 +12742,19 @@
         <v>79</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>79</v>
@@ -12695,10 +12762,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12810,14 +12877,14 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -12839,13 +12906,13 @@
         <v>109</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12927,10 +12994,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12962,7 +13029,7 @@
         <v>180</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13012,7 +13079,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13044,10 +13111,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13070,13 +13137,13 @@
         <v>79</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13127,7 +13194,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>89</v>
@@ -13145,7 +13212,7 @@
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
@@ -13159,10 +13226,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13185,13 +13252,13 @@
         <v>79</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13218,11 +13285,11 @@
         <v>79</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Y96" s="2"/>
       <c r="Z96" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>79</v>
@@ -13240,7 +13307,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13258,24 +13325,24 @@
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13286,7 +13353,7 @@
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>79</v>
@@ -13298,13 +13365,13 @@
         <v>79</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>293</v>
+        <v>103</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13331,13 +13398,13 @@
         <v>79</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>534</v>
+        <v>79</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>79</v>
@@ -13355,31 +13422,31 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>533</v>
+        <v>106</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>536</v>
+        <v>107</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>79</v>
@@ -13387,14 +13454,14 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13413,15 +13480,17 @@
         <v>79</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>539</v>
+        <v>109</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>110</v>
+        <v>234</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>79</v>
@@ -13458,19 +13527,19 @@
         <v>79</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>538</v>
+        <v>115</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -13482,19 +13551,19 @@
         <v>79</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>540</v>
+        <v>107</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>541</v>
+        <v>79</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>79</v>
@@ -13502,14 +13571,14 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13525,21 +13594,23 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>544</v>
+        <v>135</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>110</v>
+        <v>538</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>111</v>
+        <v>539</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O99" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>79</v>
       </c>
@@ -13548,7 +13619,7 @@
         <v>79</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>79</v>
@@ -13587,7 +13658,7 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -13605,7 +13676,7 @@
         <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>79</v>
@@ -13614,15 +13685,15 @@
         <v>79</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>79</v>
+        <v>545</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13633,7 +13704,7 @@
         <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>79</v>
@@ -13642,21 +13713,23 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N100" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="O100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>79</v>
       </c>
@@ -13704,13 +13777,13 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>79</v>
@@ -13722,7 +13795,7 @@
         <v>79</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>79</v>
@@ -13731,6 +13804,470 @@
         <v>79</v>
       </c>
       <c r="AO100" t="s" s="2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO104" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationdispense-list.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationdispense-list.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3853" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="515">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -272,8 +272,8 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mdd-1:whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}ch-dosage-meddis:If one dosage element is present, it should not have a sequence number. 
-              If more than one dosage element is present, the base entry has the sequence number 1. {(dosageInstruction.count() &gt; 1 implies dosageInstruction.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage') and sequence = 1).exists()) 
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mdd-1:whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}ch-dosage-meddis:If one dosage element is present, it SHALL NOT have a sequence number. 
+              If more than one dosage element is present, the base entry SHALL have the sequence number 1. {(dosageInstruction.count() &gt; 1 implies dosageInstruction.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage') and sequence = 1).exists()) 
          and (dosageInstruction.count() = 1 implies dosageInstruction.single().sequence.exists().not())}split-dosage-instruction-unit-must-match-base-dosage-instruction:The unit for doseAndRate of different dosages (split dosage) belonging to the same statement/request/dispense must match. {(dosageInstruction.count() &gt; 1) implies dosageInstruction.doseAndRate.dose.ofType(Quantity).code.union(dosageInstruction.doseAndRate.dose.ofType(Range).low.code).union(dosageInstruction.doseAndRate.dose.ofType(Range).high.code).union(dosageInstruction.doseAndRate.rate.numerator.code).count() = 1}</t>
   </si>
   <si>
@@ -419,7 +419,7 @@
     <t>MedicationDispense.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -451,7 +451,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -469,7 +469,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -513,7 +513,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -704,32 +704,6 @@
     <t>MedicationDispense.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>MedicationDispense.extension:authorDocument.value[x]:valueReference</t>
-  </si>
-  <si>
-    <t>valueReference</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-practitionerrole|http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-patient|http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-related-person)
 </t>
   </si>
@@ -737,13 +711,19 @@
     <t>Author of the content</t>
   </si>
   <si>
-    <t>MedicationDispense.extension:authorDocument.value[x]:valueReference.id</t>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>MedicationDispense.extension:authorDocument.value[x].id</t>
   </si>
   <si>
     <t>MedicationDispense.extension.value[x].id</t>
   </si>
   <si>
-    <t>MedicationDispense.extension:authorDocument.value[x]:valueReference.extension</t>
+    <t>MedicationDispense.extension:authorDocument.value[x].extension</t>
   </si>
   <si>
     <t>MedicationDispense.extension.value[x].extension</t>
@@ -762,7 +742,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>MedicationDispense.extension:authorDocument.value[x]:valueReference.extension:time</t>
+    <t>MedicationDispense.extension:authorDocument.value[x].extension:time</t>
   </si>
   <si>
     <t>time</t>
@@ -775,10 +755,10 @@
     <t>Timestamp of the authorship/data input</t>
   </si>
   <si>
-    <t>Extension to define the timestamp of the authorship/data input</t>
-  </si>
-  <si>
-    <t>MedicationDispense.extension:authorDocument.value[x]:valueReference.reference</t>
+    <t>Extension to define the timestamp of the authorship/data input. This extension has its origin from CDA and is deprecated.</t>
+  </si>
+  <si>
+    <t>MedicationDispense.extension:authorDocument.value[x].reference</t>
   </si>
   <si>
     <t>MedicationDispense.extension.value[x].reference</t>
@@ -800,7 +780,7 @@
 </t>
   </si>
   <si>
-    <t>MedicationDispense.extension:authorDocument.value[x]:valueReference.type</t>
+    <t>MedicationDispense.extension:authorDocument.value[x].type</t>
   </si>
   <si>
     <t>MedicationDispense.extension.value[x].type</t>
@@ -819,13 +799,13 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
   </si>
   <si>
-    <t>MedicationDispense.extension:authorDocument.value[x]:valueReference.identifier</t>
+    <t>MedicationDispense.extension:authorDocument.value[x].identifier</t>
   </si>
   <si>
     <t>MedicationDispense.extension.value[x].identifier</t>
@@ -853,7 +833,7 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>MedicationDispense.extension:authorDocument.value[x]:valueReference.display</t>
+    <t>MedicationDispense.extension:authorDocument.value[x].display</t>
   </si>
   <si>
     <t>MedicationDispense.extension.value[x].display</t>
@@ -874,7 +854,7 @@
     <t>MedicationDispense.modifierExtension</t>
   </si>
   <si>
-    <t>All modifiers SHALL be documented in the profile, in order to be usable.</t>
+    <t>...All modifiers SHALL be documented in the profile, in order to be usable.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -883,6 +863,10 @@
     <t>MedicationDispense.identifier</t>
   </si>
   <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-uuid-identifier}
+</t>
+  </si>
+  <si>
     <t>MedicationDispense Identifier</t>
   </si>
   <si>
@@ -904,252 +888,91 @@
     <t>CombinedMedicationDispense.id</t>
   </si>
   <si>
-    <t>MedicationDispense.identifier.id</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.extension</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>MedicationDispense.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Procedure|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP]/target[classCode=PROC,moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>MedicationDispense.status</t>
+  </si>
+  <si>
+    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | declined | unknown</t>
+  </si>
+  <si>
+    <t>A code specifying the state of the set of dispense events.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>completed</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.type</t>
+    <t>A coded concept specifying the state of the dispense event.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicationdispense-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>CombinedMedicationDispense.SupplyEvent.statusCode</t>
+  </si>
+  <si>
+    <t>MedicationDispense.statusReason[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(DetectedIssue|4.0.1)</t>
+  </si>
+  <si>
+    <t>✕ This is only meaningful when the dispense was not performed</t>
+  </si>
+  <si>
+    <t>A code describing why a dispense was not performed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicationdispense-status-reason|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.statusReason</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="not done reason"].value</t>
+  </si>
+  <si>
+    <t>MedicationDispense.category</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:ietf:rfc:3986</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.value</t>
-  </si>
-  <si>
-    <t>Identifier value as UUID</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>MedicationDispense.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Procedure)
-</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP]/target[classCode=PROC,moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>MedicationDispense.status</t>
-  </si>
-  <si>
-    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | declined | unknown</t>
-  </si>
-  <si>
-    <t>A code specifying the state of the set of dispense events.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>A coded concept specifying the state of the dispense event.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationdispense-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>CombinedMedicationDispense.SupplyEvent.statusCode</t>
-  </si>
-  <si>
-    <t>MedicationDispense.statusReason[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-Reference(DetectedIssue)</t>
-  </si>
-  <si>
-    <t>✕ This is only meaningful when the dispense was not performed</t>
-  </si>
-  <si>
-    <t>A code describing why a dispense was not performed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationdispense-status-reason</t>
-  </si>
-  <si>
-    <t>Event.statusReason</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="not done reason"].value</t>
-  </si>
-  <si>
-    <t>MedicationDispense.category</t>
-  </si>
-  <si>
     <t>The category can be used to include where the medication is expected to be consumed or other types of dispenses.  Invariants can be used to bind to different value sets when profiling to bind.</t>
   </si>
   <si>
     <t>A code describing where the dispensed medication is expected to be consumed or administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationdispense-category</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationdispense-category|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication dispense"].value</t>
@@ -1171,6 +994,13 @@
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.code</t>
   </si>
   <si>
@@ -1248,7 +1078,7 @@
     <t>MedicationDispense.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1261,7 +1091,7 @@
     <t>MedicationDispense.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1317,7 +1147,7 @@
     <t>A code describing the role an individual played in dispensing a medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationdispense-performer-function</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationdispense-performer-function|4.0.1</t>
   </si>
   <si>
     <t>participation[typeCode=PRF].functionCode</t>
@@ -1363,7 +1193,7 @@
     <t>MedicationDispense.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1373,7 +1203,7 @@
     <t>MedicationDispense.authorizingPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1494,7 +1324,7 @@
     <t>MedicationDispense.receiver</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1)
 </t>
   </si>
   <si>
@@ -1535,7 +1365,7 @@
     <t>MedicationDispense.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+    <t>Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 string</t>
   </si>
   <si>
@@ -1589,7 +1419,7 @@
     <t>How the medication should be taken</t>
   </si>
   <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>Indicates how the medication is to be used by the patient.</t>
   </si>
   <si>
     <t>When the dose or rate is intended to change over the entire administration period (e.g. Tapering dose prescriptions), multiple instances of dosage instructions will need to be supplied to convey the different doses/rates.@@ -1614,10 +1444,6 @@
   </si>
   <si>
     <t>Base entry of the dosage instruction</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-dosage-4:For split dosage timing event and dose/rate are required {sequence.exists() implies (timing.repeat.when.exists() and doseAndRate.dose.exists())}</t>
   </si>
   <si>
     <t>MedicationDispense.dosageInstruction:additionalEntry</t>
@@ -1774,7 +1600,7 @@
     <t>MedicationDispense.substitution.responsibleParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1791,7 +1617,7 @@
 Drug Utilization Review (DUR)Alert</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DetectedIssue)
+    <t xml:space="preserve">Reference(DetectedIssue|4.0.1)
 </t>
   </si>
   <si>
@@ -1804,7 +1630,7 @@
     <t>MedicationDispense.eventHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -2118,7 +1944,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO104"/>
+  <dimension ref="A1:AO95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2127,45 +1953,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="82.58984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.12109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.47265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.96484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.2578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.40625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="218.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="187.56640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="196.6875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="130.8515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.38671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="46.84375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="112.1796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.34375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="245.42578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="62.83984375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -5276,17 +5102,19 @@
         <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AC27" s="2"/>
-      <c r="AD27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5318,20 +5146,18 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>89</v>
@@ -5346,13 +5172,13 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>227</v>
+        <v>103</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>221</v>
+        <v>105</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5403,7 +5229,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>224</v>
+        <v>106</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5415,13 +5241,13 @@
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5435,21 +5261,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -5461,15 +5287,17 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5506,31 +5334,31 @@
         <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
@@ -5553,18 +5381,20 @@
         <v>231</v>
       </c>
       <c r="B30" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C30" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5576,7 +5406,7 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>109</v>
+        <v>233</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>234</v>
@@ -5584,9 +5414,7 @@
       <c r="M30" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="N30" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5623,16 +5451,16 @@
         <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>115</v>
@@ -5653,7 +5481,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5667,20 +5495,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="B31" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>238</v>
-      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>89</v>
@@ -5692,18 +5518,20 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -5752,25 +5580,25 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5784,10 +5612,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5795,7 +5623,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>89</v>
@@ -5810,16 +5638,16 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5845,13 +5673,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -5869,7 +5697,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5878,7 +5706,7 @@
         <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>101</v>
@@ -5901,10 +5729,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5927,16 +5755,16 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>125</v>
+        <v>253</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5962,13 +5790,13 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -5986,7 +5814,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6004,7 +5832,7 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>176</v>
+        <v>258</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6018,10 +5846,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6044,16 +5872,16 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>259</v>
+        <v>103</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6103,7 +5931,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6121,7 +5949,7 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>264</v>
+        <v>176</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6138,7 +5966,7 @@
         <v>265</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6149,28 +5977,28 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>267</v>
+        <v>179</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>268</v>
+        <v>180</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6220,25 +6048,25 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6252,10 +6080,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6263,28 +6091,28 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>109</v>
+        <v>269</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>179</v>
+        <v>270</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>180</v>
+        <v>271</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>272</v>
@@ -6337,7 +6165,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6349,19 +6177,19 @@
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -6369,10 +6197,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6380,10 +6208,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6395,17 +6223,15 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6454,7 +6280,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6469,16 +6295,16 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6486,10 +6312,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6497,7 +6323,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>89</v>
@@ -6506,28 +6332,30 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>104</v>
+        <v>282</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>79</v>
@@ -6545,13 +6373,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6569,10 +6397,10 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>106</v>
+        <v>281</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>89</v>
@@ -6581,19 +6409,19 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>107</v>
+        <v>290</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6601,21 +6429,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6627,17 +6455,15 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>109</v>
+        <v>294</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>234</v>
+        <v>295</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6662,49 +6488,49 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>115</v>
+        <v>293</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>107</v>
+        <v>299</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6718,10 +6544,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6738,26 +6564,24 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>153</v>
+        <v>301</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>285</v>
+        <v>110</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>286</v>
+        <v>111</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6781,13 +6605,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>289</v>
+        <v>157</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -6805,7 +6629,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6823,7 +6647,7 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6832,15 +6656,15 @@
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6848,7 +6672,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>89</v>
@@ -6863,20 +6687,18 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6900,34 +6722,32 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>89</v>
@@ -6939,35 +6759,37 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>89</v>
@@ -6982,32 +6804,30 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>125</v>
+        <v>320</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>79</v>
@@ -7043,10 +6863,10 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>89</v>
@@ -7058,27 +6878,27 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7086,7 +6906,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>89</v>
@@ -7101,16 +6921,16 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>103</v>
+        <v>323</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7124,7 +6944,7 @@
         <v>79</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>79</v>
@@ -7160,7 +6980,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7175,27 +6995,27 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7215,16 +7035,16 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>323</v>
+        <v>103</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>324</v>
+        <v>104</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>325</v>
+        <v>105</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7275,7 +7095,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>326</v>
+        <v>106</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7287,13 +7107,13 @@
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>327</v>
+        <v>107</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7302,26 +7122,26 @@
         <v>79</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7330,19 +7150,19 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>330</v>
+        <v>109</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>331</v>
+        <v>228</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>332</v>
+        <v>229</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>333</v>
+        <v>230</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7380,37 +7200,37 @@
         <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>334</v>
+        <v>115</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>335</v>
+        <v>107</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7419,15 +7239,15 @@
         <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7435,10 +7255,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7447,18 +7267,20 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>338</v>
+        <v>103</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>110</v>
+        <v>238</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7507,25 +7329,25 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>337</v>
+        <v>241</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>340</v>
+        <v>176</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7539,10 +7361,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7550,7 +7372,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>89</v>
@@ -7559,22 +7381,22 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>342</v>
+        <v>245</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>343</v>
+        <v>246</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>344</v>
+        <v>247</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7582,7 +7404,7 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>79</v>
@@ -7600,13 +7422,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>289</v>
+        <v>137</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>346</v>
+        <v>248</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>347</v>
+        <v>249</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7624,10 +7446,10 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>341</v>
+        <v>250</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>89</v>
@@ -7639,16 +7461,16 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>348</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7656,10 +7478,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7679,18 +7501,20 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7715,13 +7539,13 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -7739,7 +7563,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>352</v>
+        <v>257</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7754,10 +7578,10 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>358</v>
+        <v>258</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7771,10 +7595,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7794,19 +7618,19 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>295</v>
+        <v>103</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>110</v>
+        <v>261</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>111</v>
+        <v>262</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>360</v>
+        <v>263</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7832,13 +7656,13 @@
         <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>79</v>
@@ -7856,7 +7680,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>359</v>
+        <v>264</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7874,7 +7698,7 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>363</v>
+        <v>176</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7888,10 +7712,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7899,7 +7723,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>89</v>
@@ -7911,20 +7735,18 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>366</v>
+        <v>110</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -7961,20 +7783,22 @@
         <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AC50" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>89</v>
@@ -7986,31 +7810,29 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8019,7 +7841,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -8028,20 +7850,18 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>377</v>
+        <v>110</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -8090,13 +7910,13 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
@@ -8105,27 +7925,27 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8133,7 +7953,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>89</v>
@@ -8145,20 +7965,18 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8207,13 +8025,13 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
@@ -8222,27 +8040,27 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8354,14 +8172,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8383,13 +8201,13 @@
         <v>109</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8427,16 +8245,16 @@
         <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>115</v>
@@ -8471,10 +8289,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8482,31 +8300,31 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>244</v>
+        <v>179</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8556,25 +8374,25 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>247</v>
+        <v>354</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8588,10 +8406,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8611,21 +8429,21 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>125</v>
+        <v>301</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>251</v>
+        <v>356</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8649,13 +8467,13 @@
         <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>254</v>
+        <v>359</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>255</v>
+        <v>360</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>79</v>
@@ -8673,7 +8491,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>256</v>
+        <v>355</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8691,7 +8509,7 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>176</v>
+        <v>361</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8705,10 +8523,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8716,7 +8534,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>89</v>
@@ -8728,20 +8546,18 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>259</v>
+        <v>363</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>260</v>
+        <v>364</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -8790,10 +8606,10 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>263</v>
+        <v>362</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>89</v>
@@ -8805,10 +8621,10 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>264</v>
+        <v>367</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8822,10 +8638,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8845,20 +8661,18 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>267</v>
+        <v>104</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -8907,7 +8721,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>270</v>
+        <v>106</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8919,13 +8733,13 @@
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8939,21 +8753,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8965,15 +8779,17 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>394</v>
+        <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -9010,37 +8826,37 @@
         <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>393</v>
+        <v>115</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>396</v>
+        <v>107</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9054,10 +8870,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9065,10 +8881,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9077,18 +8893,20 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>398</v>
+        <v>103</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>110</v>
+        <v>238</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -9137,16 +8955,16 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>397</v>
+        <v>241</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>101</v>
@@ -9155,10 +8973,10 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>399</v>
+        <v>176</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9169,10 +8987,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9180,7 +8998,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>89</v>
@@ -9192,18 +9010,20 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>402</v>
+        <v>125</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>403</v>
+        <v>245</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -9228,13 +9048,13 @@
         <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>79</v>
@@ -9252,13 +9072,13 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>401</v>
+        <v>250</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
@@ -9267,10 +9087,10 @@
         <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>406</v>
+        <v>176</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9284,10 +9104,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9307,18 +9127,20 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>104</v>
+        <v>254</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9367,7 +9189,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>106</v>
+        <v>257</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9379,13 +9201,13 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>107</v>
+        <v>258</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9399,21 +9221,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9422,19 +9244,19 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9484,25 +9306,25 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9516,10 +9338,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9530,29 +9352,27 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>109</v>
+        <v>375</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>79</v>
@@ -9601,25 +9421,25 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9633,10 +9453,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9647,7 +9467,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9659,18 +9479,18 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>295</v>
+        <v>378</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>412</v>
+        <v>110</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9694,13 +9514,13 @@
         <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>79</v>
@@ -9718,13 +9538,13 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>79</v>
@@ -9733,27 +9553,27 @@
         <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9761,7 +9581,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>89</v>
@@ -9776,13 +9596,13 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>419</v>
+        <v>301</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>420</v>
+        <v>110</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>421</v>
+        <v>111</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9809,13 +9629,13 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -9833,10 +9653,10 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>89</v>
@@ -9848,27 +9668,27 @@
         <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>79</v>
+        <v>389</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9876,7 +9696,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>89</v>
@@ -9891,13 +9711,13 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>103</v>
+        <v>391</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>104</v>
+        <v>392</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>105</v>
+        <v>393</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9948,7 +9768,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>106</v>
+        <v>390</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9960,41 +9780,41 @@
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>107</v>
+        <v>394</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10006,17 +9826,15 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>109</v>
+        <v>398</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>234</v>
+        <v>110</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>79</v>
@@ -10053,37 +9871,37 @@
         <v>79</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>115</v>
+        <v>397</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>107</v>
+        <v>399</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10092,15 +9910,15 @@
         <v>79</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>79</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10108,7 +9926,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>89</v>
@@ -10123,17 +9941,15 @@
         <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>103</v>
+        <v>402</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>244</v>
+        <v>110</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -10182,7 +9998,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>247</v>
+        <v>401</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10191,7 +10007,7 @@
         <v>89</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>101</v>
@@ -10200,24 +10016,24 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>176</v>
+        <v>403</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>79</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10225,7 +10041,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>89</v>
@@ -10237,20 +10053,18 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>125</v>
+        <v>402</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>251</v>
+        <v>407</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10275,13 +10089,13 @@
         <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>79</v>
@@ -10299,7 +10113,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>256</v>
+        <v>406</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10314,27 +10128,27 @@
         <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>176</v>
+        <v>410</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>79</v>
+        <v>405</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10354,20 +10168,18 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>259</v>
+        <v>375</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -10416,7 +10228,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>263</v>
+        <v>411</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10434,24 +10246,24 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>264</v>
+        <v>412</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10462,7 +10274,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10471,20 +10283,18 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>103</v>
+        <v>416</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>267</v>
+        <v>110</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10533,13 +10343,13 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>270</v>
+        <v>415</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>79</v>
@@ -10551,13 +10361,13 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>176</v>
+        <v>417</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10565,10 +10375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10579,7 +10389,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10591,13 +10401,13 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>110</v>
+        <v>421</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>111</v>
+        <v>422</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10648,13 +10458,13 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
@@ -10663,10 +10473,10 @@
         <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10675,15 +10485,15 @@
         <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10694,7 +10504,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10706,7 +10516,7 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>434</v>
+        <v>103</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>110</v>
@@ -10714,9 +10524,7 @@
       <c r="M74" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N74" t="s" s="2">
-        <v>435</v>
-      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -10765,42 +10573,42 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>433</v>
+        <v>106</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>437</v>
+        <v>107</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10811,7 +10619,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10823,7 +10631,7 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>295</v>
+        <v>109</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>110</v>
@@ -10856,66 +10664,66 @@
         <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>440</v>
+        <v>115</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10923,7 +10731,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>89</v>
@@ -10935,18 +10743,20 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -10995,7 +10805,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11013,24 +10823,24 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>452</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11050,10 +10860,10 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>454</v>
+        <v>402</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>110</v>
@@ -11110,7 +10920,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11128,7 +10938,7 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11137,15 +10947,15 @@
         <v>79</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>456</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11153,7 +10963,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>89</v>
@@ -11168,13 +10978,13 @@
         <v>90</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>110</v>
+        <v>439</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>111</v>
+        <v>440</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11225,10 +11035,10 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>89</v>
@@ -11243,24 +11053,24 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>461</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11271,7 +11081,7 @@
         <v>89</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11283,15 +11093,17 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>79</v>
@@ -11328,25 +11140,23 @@
         <v>79</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="AC79" s="2"/>
       <c r="AD79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>79</v>
@@ -11355,35 +11165,37 @@
         <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="D80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>89</v>
@@ -11398,15 +11210,17 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>110</v>
+        <v>453</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>79</v>
@@ -11455,13 +11269,13 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>79</v>
@@ -11473,26 +11287,28 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="D81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11513,15 +11329,17 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>110</v>
+        <v>457</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -11570,7 +11388,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11588,13 +11406,13 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -11602,10 +11420,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11616,7 +11434,7 @@
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11628,13 +11446,13 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>476</v>
+        <v>346</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11685,42 +11503,42 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>101</v>
+        <v>461</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11746,10 +11564,10 @@
         <v>103</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11832,14 +11650,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11861,12 +11679,14 @@
         <v>109</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>79</v>
@@ -11903,16 +11723,16 @@
         <v>79</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>115</v>
@@ -11933,7 +11753,7 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11947,10 +11767,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11961,28 +11781,28 @@
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>485</v>
+        <v>109</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>486</v>
+        <v>179</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>487</v>
+        <v>266</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12032,25 +11852,25 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>488</v>
+        <v>354</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>489</v>
+        <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12059,15 +11879,15 @@
         <v>79</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12075,7 +11895,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>89</v>
@@ -12087,16 +11907,16 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>110</v>
+        <v>469</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>111</v>
+        <v>470</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12147,10 +11967,10 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>89</v>
@@ -12165,7 +11985,7 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12174,15 +11994,15 @@
         <v>79</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12190,7 +12010,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>89</v>
@@ -12202,16 +12022,16 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>494</v>
+        <v>301</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12238,13 +12058,11 @@
         <v>79</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="Y87" s="2"/>
       <c r="Z87" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>79</v>
@@ -12262,10 +12080,10 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>89</v>
@@ -12280,24 +12098,24 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>498</v>
+        <v>387</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>176</v>
+        <v>477</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12305,10 +12123,10 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
@@ -12320,17 +12138,15 @@
         <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>500</v>
+        <v>103</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>501</v>
+        <v>104</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>79</v>
@@ -12367,35 +12183,37 @@
         <v>79</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AC88" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>499</v>
+        <v>106</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>505</v>
+        <v>107</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
@@ -12409,23 +12227,21 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>506</v>
+        <v>479</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>79</v>
@@ -12437,16 +12253,16 @@
         <v>79</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>508</v>
+        <v>109</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>509</v>
+        <v>228</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>502</v>
+        <v>229</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>503</v>
+        <v>230</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12484,19 +12300,19 @@
         <v>79</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>499</v>
+        <v>115</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12508,13 +12324,13 @@
         <v>79</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>510</v>
+        <v>116</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>505</v>
+        <v>107</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
@@ -12528,14 +12344,12 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12553,21 +12367,23 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>513</v>
+        <v>135</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>514</v>
+        <v>481</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12576,7 +12392,7 @@
         <v>79</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>79</v>
@@ -12615,7 +12431,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -12633,7 +12449,7 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12642,15 +12458,15 @@
         <v>79</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12670,19 +12486,23 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>402</v>
+        <v>103</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>516</v>
+        <v>490</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
       </c>
@@ -12730,7 +12550,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -12742,30 +12562,30 @@
         <v>79</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>518</v>
+        <v>101</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>520</v>
+        <v>79</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12776,7 +12596,7 @@
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
@@ -12788,13 +12608,13 @@
         <v>79</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>103</v>
+        <v>301</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12821,13 +12641,13 @@
         <v>79</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>79</v>
@@ -12845,31 +12665,31 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>106</v>
+        <v>497</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>107</v>
+        <v>500</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>79</v>
@@ -12877,14 +12697,14 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -12903,17 +12723,15 @@
         <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>109</v>
+        <v>503</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>234</v>
+        <v>110</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>79</v>
@@ -12962,7 +12780,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>115</v>
+        <v>502</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -12974,19 +12792,19 @@
         <v>79</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>107</v>
+        <v>504</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>79</v>
@@ -12994,42 +12812,42 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>109</v>
+        <v>508</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>272</v>
+        <v>509</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13079,7 +12897,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>410</v>
+        <v>506</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13091,13 +12909,13 @@
         <v>79</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
@@ -13111,10 +12929,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13122,10 +12940,10 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>79</v>
@@ -13137,15 +12955,17 @@
         <v>79</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>526</v>
+        <v>110</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>79</v>
@@ -13194,13 +13014,13 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>79</v>
@@ -13212,7 +13032,7 @@
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
@@ -13221,1053 +13041,6 @@
         <v>79</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="Y96" s="2"/>
-      <c r="Z96" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="P99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="P100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O104" s="2"/>
-      <c r="P104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO104" t="s" s="2">
         <v>79</v>
       </c>
     </row>
